--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,242 +446,3124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1MS21cs130</t>
+          <t>1MS21cs001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UDITANSHU KAMAL</t>
+          <t>ABDULMAJEED OTHMAN ABDULLAH AL SHAWEA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>TAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1MS21cs131</t>
+          <t>1MS21cs002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VAMSI P</t>
+          <t>ABID MODI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>7.07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1MS21cs132</t>
+          <t>1MS21cs003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VANSH NAHAR</t>
+          <t>ADARSH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>7.20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1MS21cs133</t>
+          <t>1MS21cs004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VASUMAN MISHRA</t>
+          <t xml:space="preserve">ADHITHI M </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>9.47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1MS21cs134</t>
+          <t>1MS21cs005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VENNELA KOTHARI</t>
+          <t xml:space="preserve">ADITHYA VIJAYKUMAR </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>5.57</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1MS21cs135</t>
+          <t>1MS21cs006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VIJENDER</t>
+          <t>AFIYA KHADIR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1MS21cs136</t>
+          <t>1MS21cs007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VINAY G N</t>
+          <t>AISHWARYA BHAGAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>8.55</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1MS21cs137</t>
+          <t>1MS21cs008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VINOD SAJJAN</t>
+          <t>AISIRI SUNIL PATIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>6.76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1MS21cs138</t>
+          <t>1MS21cs009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VISHAL CHAURASIA</t>
+          <t>AJAY JAYAPRAKASH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.54</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1MS21cs139</t>
+          <t>1MS21cs010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VISHNU KALLIHAL RAJ</t>
+          <t>AKASH SURESH BADADANI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>8.91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>1MS21cs011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AMAN RAJ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1MS21cs012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMMAN BAHETI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1MS21cs013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AMOGH A N</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1MS21cs014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AMOGH S K</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1MS21cs015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ANANYA N</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1MS21cs016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ANEESH M SOMAYAJI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1MS21cs017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ANIRUDH SANAL KUMAR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1MS21cs018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ANISH RAMKRISHNA KULKARNI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1MS21cs019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ANKIT JANGID</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1MS21cs020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ANKIT KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1MS21cs021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ANKUSH</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1MS21cs022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ANNUITH NITIN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1MS21cs023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ANOOP NAGARAJ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1MS21cs024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANURAG HAZARIKA </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1MS21cs025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ANUSHKA BAJPAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1MS21cs026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>APOORVA M</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1MS21cs027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARCHIT KIRAN KUMAR </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1MS21cs028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ARJUN M</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1MS21cs029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ARNAV RAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1MS21cs030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ARYAN ANCHALIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1MS21cs031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARYAN GUPTA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1MS21cs032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ASHEESH ANIL TRIKANNAD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1MS21cs033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ATHARVA R KULKARNI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1MS21cs034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ATMURI SAI MOULI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1MS21cs035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BABA IBRAHIM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1MS21cs036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BENADIN BENNY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1MS21cs037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BHARMAL HAMZA ABBAS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1MS21cs038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BHOOMIKA R</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1MS21cs039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CHANDRASHEKAR S</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1MS21cs040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CHARISHMA REDDY MALLEM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1MS21cs041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CHIRAYU KAJE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1MS21cs042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CHRIS BIJU</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1MS21cs043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DANISH BASHIR</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1MS21cs044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DHARSHINI VENKATESAN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1MS21cs045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DIVYA S</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1MS21cs046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DUDE BHARATH VAMSI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1MS21cs047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>G AISHWARYA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1MS21cs048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GAGAN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1MS21cs049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GARVITA GUPTA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1MS21cs050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HARI YOSHITHA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1MS21cs051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HARSHAD PUNDALIK JOGADANKAR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1MS21cs052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HEMACHANDRA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1MS21cs053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HET RUTUL JOSHI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1MS21cs054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HITESH KUMAR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1MS21cs055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JENISH OJHA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1MS21cs056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>JYOTHI YADAV</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1MS21cs057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">K A VARUN BALAJI </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1MS21cs058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>K ROHIT BHASKAR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1MS21cs059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>UDAY CHOWDARY K</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1MS21cs060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KALPI SINGH GHALOT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1MS21cs061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KANUMURI SAI RAMA RAHUL VARMA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1MS21cs062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KARAN PATHAK</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1MS21cs063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>KAVYASRI R</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1MS21cs064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KRITIKA SAH</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1MS21cs065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KRISHNA RANGANATHAN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1MS21cs066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LAKSHAY MAHINDRO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1MS21cs067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LAYA BIRENDRA KUMAR ARUN </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1MS21cs068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>M VINAY</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1MS21cs069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MALAVIKA DILEEP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1MS21cs070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MANASI PRIYA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1MS21cs071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MANIK ANIMESH AJIT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1MS21cs072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MANOJ V L</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1MS21cs073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MAXON M KITTUR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1MS21cs074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MENDU YASHWANTH RAM NAIDU</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1MS21cs075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MIHIKA DHARIWAL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1MS21cs076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MOHAMMAD ATEEB TANTRAY</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1MS21cs078</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MRINAL.S</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1MS21cs079</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>N GOWRI VISWANATH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1MS21cs080</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NANAIAH KS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1MS21cs081</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NATASHA SURESH SARAVANA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1MS21cs082</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PHADKE NEERAJ DEEPAK</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1MS21cs083</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NEERAJ MAYUR</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1MS21cs084</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NIKITH GANGA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1MS21cs085</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>NISHITA SATHISH KUMAR</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1MS21cs086</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>OMKAR SHREEMANT NAGANASURA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1MS21cs087</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DHANRAJ PANDYA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1MS21cs088</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PAVAN KUMAR K</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1MS21cs089</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PERAMANA CHETHANA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1MS21cs090</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PETER M J</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1MS21cs091</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PIYUSH KHODBOLE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1MS21cs092</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>POLEPALLI NIMAI CHARAN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1MS21cs093</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PRACHI JAIDEEP GOPSITKAR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1MS21cs094</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PRACHI PATIL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1MS21cs095</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PRANAV KANDULA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1MS21cs096</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PRANAV MAHADIKAR RAJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1MS21cs097</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PRANAY SHARMA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1MS21cs098</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PRATEEK M VERNEKAR</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1MS21cs099</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PRATHAMESH MAHANTESH DEVARAMANI</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1MS21cs100</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PRATISH KUMAR</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1MS21cs101</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PREETHAM M P</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1MS21cs102</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PRUTHVIRAJ M SAVANUR</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1MS21cs103</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PRUTVI PRAKASH SHETTY</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1MS21cs104</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RACHNA RAMESH </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1MS21cs105</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RAHUL KUMAR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1MS21cs106</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RAHUL RACHIPA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1MS21cs107</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RAKSHITHA P</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1MS21cs108</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RIDDHIKA SAI MANOHAR</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1MS21cs109</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>S MEENA KUMARI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1MS21cs110</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SAANVI NAIR</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1MS21cs111</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SAHIL KHIRWAL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1MS21cs112</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SAHIL SANJEEV KULKARNI</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1MS21cs113</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SANATH S</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1MS21cs114</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SATISH</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1MS21cs115</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SHARA RAVIRAJ SHETTY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1MS21cs116</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SHASHANK S</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1MS21cs117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SHIVANSH GUPTA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1MS21cs118</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SHRADDHA VINOD PRABHU</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1MS21cs119</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SIDDHARTH</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1MS21cs120</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SIDDHARTH SATYAVOLU</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1MS21cs122</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SUHANI PRADHAN</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1MS21cs123</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SUNITHA BHANDARA KAVATHE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1MS21cs124</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SUSHEEL SEERVI H</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1MS21cs125</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SYED SADATH ULLA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1MS21cs126</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SYED UMAR FAROOQ</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1MS21cs127</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TANVI RAO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1MS21cs128</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TAVISHA SAXENA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1MS21cs129</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TAVISHI S SHETTY</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1MS21cs130</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>UDITANSHU KAMAL</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1MS21cs131</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>VAMSI P</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1MS21cs132</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>VANSH NAHAR</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1MS21cs133</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>VASUMAN MISHRA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1MS21cs134</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>VENNELA KOTHARI</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1MS21cs135</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>VIJENDER</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1MS21cs136</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>VINAY G N</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1MS21cs137</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>VINOD SAJJAN</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1MS21cs138</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VISHAL CHAURASIA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1MS21cs139</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>VISHNU KALLIHAL RAJ</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
           <t>1MS21cs140</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>YASHASHWINI S</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>8.85</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1MS21cs141</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>YASHWANTH S</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1MS21cs142</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>YOGESH HANAMANT NAVI</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1MS21cs143</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ZAZ ARSALAN KHURSHEED</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1MS21cs144</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>AMALA RASHMI KUMAR</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>9.62</t>
         </is>
       </c>
     </row>

--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,506 +446,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1MS21cs098</t>
+          <t>1MS21cs100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRATEEK M VERNEKAR</t>
+          <t>PRATISH KUMAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>8.65</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1MS21cs099</t>
+          <t>1MS21cs101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PRATHAMESH MAHANTESH DEVARAMANI</t>
+          <t>PREETHAM M P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>8.55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1MS21cs100</t>
+          <t>1MS21cs102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PRATISH KUMAR</t>
+          <t>PRUTHVIRAJ M SAVANUR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>8.80</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1MS21cs101</t>
+          <t>1MS21cs103</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PREETHAM M P</t>
+          <t>PRUTVI PRAKASH SHETTY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1MS21cs102</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PRUTHVIRAJ M SAVANUR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1MS21cs103</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PRUTVI PRAKASH SHETTY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>9.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1MS21cs104</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RACHNA RAMESH </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1MS21cs105</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RAHUL KUMAR</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1MS21cs106</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RAHUL RACHIPA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1MS21cs107</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RAKSHITHA P</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1MS21cs108</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RIDDHIKA SAI MANOHAR</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1MS21cs109</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>S MEENA KUMARI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1MS21cs110</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SAANVI NAIR</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1MS21cs111</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SAHIL KHIRWAL</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1MS21cs112</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SAHIL SANJEEV KULKARNI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1MS21cs113</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SANATH S</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1MS21cs114</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SATISH</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1MS21cs115</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SHARA RAVIRAJ SHETTY</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1MS21cs116</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SHASHANK S</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1MS21cs117</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SHIVANSH GUPTA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1MS21cs118</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SHRADDHA VINOD PRABHU</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1MS21cs119</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SIDDHARTH</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1MS21cs120</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SIDDHARTH SATYAVOLU</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.09</t>
         </is>
       </c>
     </row>

--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,88 +446,3146 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1MS21cs100</t>
+          <t>1MS21cs001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRATISH KUMAR</t>
+          <t>ABDULMAJEED OTHMAN ABDULLAH AL SHAWEA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>TAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1MS21cs101</t>
+          <t>1MS21cs002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PREETHAM M P</t>
+          <t>ABID MODI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>7.07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1MS21cs102</t>
+          <t>1MS21cs003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PRUTHVIRAJ M SAVANUR</t>
+          <t>ADARSH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>7.20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>1MS21cs004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADHITHI M </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1MS21cs005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADITHYA VIJAYKUMAR </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1MS21cs006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AFIYA KHADIR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1MS21cs007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AISHWARYA BHAGAT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1MS21cs008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AISIRI SUNIL PATIL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1MS21cs009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AJAY JAYAPRAKASH</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1MS21cs010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AKASH SURESH BADADANI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1MS21cs011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AMAN RAJ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1MS21cs012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMMAN BAHETI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1MS21cs013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AMOGH A N</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1MS21cs014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AMOGH S K</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1MS21cs015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ANANYA N</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1MS21cs016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ANEESH M SOMAYAJI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1MS21cs017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ANIRUDH SANAL KUMAR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1MS21cs018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ANISH RAMKRISHNA KULKARNI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1MS21cs019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ANKIT JANGID</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1MS21cs020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ANKIT KUMAR SINGH</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1MS21cs021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ANKUSH</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1MS21cs022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ANNUITH NITIN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1MS21cs023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ANOOP NAGARAJ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1MS21cs024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANURAG HAZARIKA </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1MS21cs025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ANUSHKA BAJPAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1MS21cs026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>APOORVA M</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1MS21cs027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARCHIT KIRAN KUMAR </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1MS21cs028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ARJUN M</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1MS21cs029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ARNAV RAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1MS21cs030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ARYAN ANCHALIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1MS21cs031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARYAN GUPTA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1MS21cs032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ASHEESH ANIL TRIKANNAD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1MS21cs033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ATHARVA R KULKARNI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1MS21cs034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ATMURI SAI MOULI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1MS21cs035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BABA IBRAHIM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1MS21cs036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BENADIN BENNY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1MS21cs037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BHARMAL HAMZA ABBAS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1MS21cs038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BHOOMIKA R</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1MS21cs039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CHANDRASHEKAR S</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1MS21cs040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CHARISHMA REDDY MALLEM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1MS21cs041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CHIRAYU KAJE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1MS21cs042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CHRIS BIJU</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1MS21cs043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DANISH BASHIR</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1MS21cs044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DHARSHINI VENKATESAN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1MS21cs045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DIVYA S</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1MS21cs046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DUDE BHARATH VAMSI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1MS21cs047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>G AISHWARYA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1MS21cs048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GAGAN</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1MS21cs049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GARVITA GUPTA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1MS21cs050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HARI YOSHITHA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1MS21cs051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HARSHAD PUNDALIK JOGADANKAR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1MS21cs052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HEMACHANDRA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1MS21cs053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HET RUTUL JOSHI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1MS21cs054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HITESH KUMAR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1MS21cs055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JENISH OJHA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1MS21cs056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>JYOTHI YADAV</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1MS21cs057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">K A VARUN BALAJI </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1MS21cs058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>K ROHIT BHASKAR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1MS21cs059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>UDAY CHOWDARY K</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1MS21cs060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KALPI SINGH GHALOT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1MS21cs061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KANUMURI SAI RAMA RAHUL VARMA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1MS21cs062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KARAN PATHAK</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1MS21cs063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>KAVYASRI R</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1MS21cs064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KRITIKA SAH</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1MS21cs065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KRISHNA RANGANATHAN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1MS21cs066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LAKSHAY MAHINDRO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1MS21cs067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LAYA BIRENDRA KUMAR ARUN </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1MS21cs068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>M VINAY</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1MS21cs069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MALAVIKA DILEEP</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1MS21cs070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MANASI PRIYA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1MS21cs071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MANIK ANIMESH AJIT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1MS21cs072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MANOJ V L</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1MS21cs073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MAXON M KITTUR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1MS21cs074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MENDU YASHWANTH RAM NAIDU</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1MS21cs075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MIHIKA DHARIWAL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1MS21cs076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MOHAMMAD ATEEB TANTRAY</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1MS21cs078</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MRINAL.S</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1MS21cs079</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>N GOWRI VISWANATH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1MS21cs080</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NANAIAH KS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1MS21cs081</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NATASHA SURESH SARAVANA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1MS21cs082</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PHADKE NEERAJ DEEPAK</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1MS21cs083</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NEERAJ MAYUR</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1MS21cs084</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NIKITH GANGA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1MS21cs085</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>NISHITA SATHISH KUMAR</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1MS21cs086</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>OMKAR SHREEMANT NAGANASURA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1MS21cs087</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DHANRAJ PANDYA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1MS21cs088</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PAVAN KUMAR K</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1MS21cs089</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PERAMANA CHETHANA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1MS21cs090</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PETER M J</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1MS21cs091</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PIYUSH KHODBOLE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1MS21cs092</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>POLEPALLI NIMAI CHARAN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1MS21cs093</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PRACHI JAIDEEP GOPSITKAR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1MS21cs094</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PRACHI PATIL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1MS21cs095</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PRANAV KANDULA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1MS21cs096</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PRANAV MAHADIKAR RAJEEV KUMAR</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1MS21cs097</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PRANAY SHARMA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1MS21cs098</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PRATEEK M VERNEKAR</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1MS21cs099</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PRATHAMESH MAHANTESH DEVARAMANI</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1MS21cs100</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PRATISH KUMAR</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1MS21cs101</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PREETHAM M P</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1MS21cs102</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PRUTHVIRAJ M SAVANUR</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>1MS21cs103</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>PRUTVI PRAKASH SHETTY</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>8.80</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1MS21cs104</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RACHNA RAMESH </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1MS21cs105</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RAHUL KUMAR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1MS21cs106</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RAHUL RACHIPA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1MS21cs107</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RAKSHITHA P</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1MS21cs108</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RIDDHIKA SAI MANOHAR</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1MS21cs109</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>S MEENA KUMARI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1MS21cs110</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SAANVI NAIR</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1MS21cs111</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SAHIL KHIRWAL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1MS21cs112</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SAHIL SANJEEV KULKARNI</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1MS21cs113</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SANATH S</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1MS21cs114</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SATISH</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1MS21cs115</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SHARA RAVIRAJ SHETTY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1MS21cs116</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SHASHANK S</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1MS21cs117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SHIVANSH GUPTA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1MS21cs118</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SHRADDHA VINOD PRABHU</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1MS21cs119</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SIDDHARTH</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1MS21cs120</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SIDDHARTH SATYAVOLU</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1MS21cs122</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SUHANI PRADHAN</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1MS21cs123</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SUNITHA BHANDARA KAVATHE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1MS21cs124</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SUSHEEL SEERVI H</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1MS21cs125</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SYED SADATH ULLA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>1MS21cs126</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SYED UMAR FAROOQ</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>1MS21cs127</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TANVI RAO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1MS21cs128</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TAVISHA SAXENA</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1MS21cs129</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TAVISHI S SHETTY</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1MS21cs130</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>UDITANSHU KAMAL</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1MS21cs131</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>VAMSI P</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1MS21cs132</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>VANSH NAHAR</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1MS21cs133</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>VASUMAN MISHRA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1MS21cs134</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>VENNELA KOTHARI</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1MS21cs135</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>VIJENDER</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1MS21cs136</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>VINAY G N</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1MS21cs137</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>VINOD SAJJAN</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1MS21cs138</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VISHAL CHAURASIA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1MS21cs139</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>VISHNU KALLIHAL RAJ</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1MS21cs140</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>YASHASHWINI S</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1MS21cs141</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>YASHWANTH S</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1MS21cs142</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>YOGESH HANAMANT NAVI</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1MS21cs143</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ZAZ ARSALAN KHURSHEED</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1MS21cs144</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>AMALA RASHMI KUMAR</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1MS21cs145</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MOULYA R GOWDA</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>9.01</t>
         </is>
       </c>
     </row>

--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,286 +446,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1MS21cs098</t>
+          <t>1MS21cs100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRATEEK M VERNEKAR</t>
+          <t>PRATISH KUMAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>8.65</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1MS21cs099</t>
+          <t>1MS21cs101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PRATHAMESH MAHANTESH DEVARAMANI</t>
+          <t>PREETHAM M P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>8.55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1MS21cs100</t>
+          <t>1MS21cs102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PRATISH KUMAR</t>
+          <t>PRUTHVIRAJ M SAVANUR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1MS21cs101</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PREETHAM M P</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1MS21cs102</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PRUTHVIRAJ M SAVANUR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>8.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1MS21cs103</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PRUTVI PRAKASH SHETTY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1MS21cs104</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RACHNA RAMESH </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1MS21cs105</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RAHUL KUMAR</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1MS21cs106</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RAHUL RACHIPA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1MS21cs107</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RAKSHITHA P</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1MS21cs108</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RIDDHIKA SAI MANOHAR</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1MS21cs109</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>S MEENA KUMARI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1MS21cs110</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SAANVI NAIR</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.00</t>
         </is>
       </c>
     </row>
